--- a/docs/user/example/ontodog_input.xlsx
+++ b/docs/user/example/ontodog_input.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="22995" windowHeight="9915"/>
+    <workbookView xWindow="1240" yWindow="800" windowWidth="23000" windowHeight="11680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>data item</t>
   </si>
@@ -146,13 +151,19 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000295</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+  </si>
+  <si>
+    <t>material entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +200,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,8 +234,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -217,7 +246,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,21 +548,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -542,7 +573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -553,7 +584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -564,7 +595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -575,7 +606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -586,7 +617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -597,7 +628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -608,7 +639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -619,7 +650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -630,7 +661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -641,7 +672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -652,7 +683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -663,7 +694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -674,7 +705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -685,7 +716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -696,7 +727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -707,7 +738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -718,7 +749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -729,7 +760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -740,7 +771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -751,7 +782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -763,8 +794,24 @@
       </c>
       <c r="D21" s="3"/>
     </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>